--- a/LavoroGruppo/Consegna3/Matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna3/Matrice_responsabilità.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20385"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.iob\Desktop\COME\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F772F-83FB-4635-9753-D96CA3BDC428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F30D30-05EC-4401-98D3-F05FF4F959FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>*R=Responsabile</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Use case scenario report attività</t>
+  </si>
+  <si>
+    <t>Analisi Tecnologie</t>
+  </si>
+  <si>
+    <t>Preventivo dei costi</t>
   </si>
 </sst>
 </file>
@@ -199,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -444,6 +450,82 @@
       </right>
       <top style="medium">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -456,7 +538,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,13 +561,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -495,9 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,6 +582,32 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -848,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -862,7 +964,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -884,30 +986,30 @@
     </row>
     <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="29" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="29" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="29" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="30"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
@@ -967,11 +1069,11 @@
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="4"/>
@@ -998,11 +1100,11 @@
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1031,11 +1133,11 @@
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
         <v>6</v>
@@ -1062,11 +1164,11 @@
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1095,11 +1197,11 @@
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
@@ -1128,11 +1230,11 @@
       <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="4"/>
@@ -1161,11 +1263,11 @@
       <c r="A15" s="6">
         <v>7</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="4"/>
@@ -1190,11 +1292,11 @@
       <c r="A16" s="6">
         <v>8</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
@@ -1219,11 +1321,11 @@
       <c r="A17" s="6">
         <v>9</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
@@ -1246,11 +1348,11 @@
       <c r="A18" s="7">
         <v>10</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="10"/>
       <c r="F18" s="11" t="s">
         <v>6</v>
@@ -1273,16 +1375,16 @@
       <c r="A19" s="8">
         <v>11</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="13"/>
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
@@ -1300,92 +1402,92 @@
       <c r="A20" s="7">
         <v>12</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>13</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>15</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5" t="s">
         <v>6</v>
@@ -1408,11 +1510,11 @@
       <c r="A24" s="7">
         <v>16</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5" t="s">
         <v>6</v>
@@ -1435,11 +1537,11 @@
       <c r="A25" s="8">
         <v>17</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="19"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5" t="s">
         <v>6</v>
@@ -1462,11 +1564,11 @@
       <c r="A26" s="7">
         <v>18</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="10"/>
       <c r="F26" s="9" t="s">
         <v>6</v>
@@ -1485,31 +1587,194 @@
       <c r="R26" s="9"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>19</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="17"/>
+      <c r="B27" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="34"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <v>20</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
+        <v>21</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>22</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>23</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>24</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
+        <v>25</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="34">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B26:C26"/>
@@ -1523,21 +1788,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/LavoroGruppo/Consegna3/Matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna3/Matrice_responsabilità.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.iob\Desktop\COME\LavoroGruppo\Consegna3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simone.guida\Desktop\COME\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F30D30-05EC-4401-98D3-F05FF4F959FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246ADEC1-598C-455E-B527-744608E08FDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="33">
   <si>
     <t>*R=Responsabile</t>
   </si>
@@ -205,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -442,14 +442,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -464,71 +512,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,7 +547,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -563,16 +572,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,32 +609,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -952,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -986,36 +1005,36 @@
     </row>
     <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="33"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="31"/>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1069,10 +1088,10 @@
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="17" t="s">
         <v>6</v>
       </c>
@@ -1100,10 +1119,10 @@
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="17"/>
       <c r="E10" s="4" t="s">
         <v>6</v>
@@ -1133,10 +1152,10 @@
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="17"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
@@ -1164,10 +1183,10 @@
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="17"/>
       <c r="E12" s="4" t="s">
         <v>6</v>
@@ -1197,10 +1216,10 @@
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="17"/>
       <c r="E13" s="4" t="s">
         <v>6</v>
@@ -1230,10 +1249,10 @@
       <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="17" t="s">
         <v>6</v>
       </c>
@@ -1263,10 +1282,10 @@
       <c r="A15" s="6">
         <v>7</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="17" t="s">
         <v>6</v>
       </c>
@@ -1292,10 +1311,10 @@
       <c r="A16" s="6">
         <v>8</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="17"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
@@ -1321,10 +1340,10 @@
       <c r="A17" s="6">
         <v>9</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="17"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
@@ -1348,20 +1367,20 @@
       <c r="A18" s="7">
         <v>10</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
       <c r="L18" s="9"/>
       <c r="M18" s="12"/>
       <c r="N18" s="11"/>
@@ -1375,20 +1394,20 @@
       <c r="A19" s="8">
         <v>11</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="13"/>
       <c r="M19" s="14"/>
       <c r="N19" s="13"/>
@@ -1402,91 +1421,91 @@
       <c r="A20" s="7">
         <v>12</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="21"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="19"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>13</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="21"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="19"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>14</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="21"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="19"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>15</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="17"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5" t="s">
@@ -1510,10 +1529,10 @@
       <c r="A24" s="7">
         <v>16</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="17"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5" t="s">
@@ -1537,10 +1556,10 @@
       <c r="A25" s="8">
         <v>17</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="17"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5" t="s">
@@ -1564,20 +1583,20 @@
       <c r="A26" s="7">
         <v>18</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
       <c r="N26" s="9"/>
@@ -1591,179 +1610,179 @@
       <c r="A27" s="8">
         <v>19</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="34"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+      <c r="C27" s="36"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="22"/>
+    </row>
+    <row r="28" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
         <v>20</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="41"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="21">
         <v>21</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="A30" s="21">
         <v>22</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="21">
         <v>23</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="21">
         <v>24</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="A33" s="21">
         <v>25</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="B9:C9"/>
@@ -1775,6 +1794,11 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B26:C26"/>
@@ -1786,8 +1810,11 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/LavoroGruppo/Consegna3/Matrice_responsabilità.xlsx
+++ b/LavoroGruppo/Consegna3/Matrice_responsabilità.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simone.guida\Desktop\COME\LavoroGruppo\Consegna3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246ADEC1-598C-455E-B527-744608E08FDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EADA816-045F-4AE7-9A01-A2BEE81C61B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -445,17 +445,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -538,6 +527,80 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,7 +610,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,9 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -576,29 +636,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -609,25 +661,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -971,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -983,7 +1055,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1005,36 +1077,37 @@
     </row>
     <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="32" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="34"/>
+      <c r="J7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1085,14 +1158,14 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="45">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="4"/>
@@ -1116,14 +1189,14 @@
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="45">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1149,14 +1222,14 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="45">
         <v>3</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
         <v>6</v>
@@ -1180,14 +1253,14 @@
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="45">
         <v>4</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1213,14 +1286,14 @@
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="45">
         <v>5</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
@@ -1246,14 +1319,14 @@
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>6</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="45">
+        <v>6</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="4"/>
@@ -1279,14 +1352,14 @@
       <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="45">
         <v>7</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="4"/>
@@ -1308,14 +1381,14 @@
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="45">
         <v>8</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
@@ -1337,14 +1410,14 @@
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="45">
         <v>9</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
@@ -1364,149 +1437,149 @@
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="47">
         <v>10</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="10"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="7"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="48">
         <v>11</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="11"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="47">
         <v>12</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="19"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="16"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="48">
         <v>13</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="19"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="16"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="47">
         <v>14</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="19"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="16"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="48">
         <v>15</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5" t="s">
         <v>6</v>
@@ -1526,14 +1599,14 @@
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="47">
         <v>16</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5" t="s">
         <v>6</v>
@@ -1553,14 +1626,14 @@
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="48">
         <v>17</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5" t="s">
         <v>6</v>
@@ -1577,223 +1650,215 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="15"/>
+      <c r="S25" s="12"/>
     </row>
     <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="47">
         <v>18</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="17" t="s">
+      <c r="C26" s="46"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="17"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="44"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="10"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="7"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="48">
         <v>19</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="17"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="14"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="28" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="4"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="22"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="19"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
+      <c r="A28" s="50">
         <v>20</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="41"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="25"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="43">
         <v>21</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <v>22</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <v>23</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
+      <c r="A32" s="18">
         <v>24</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="A33" s="18">
         <v>25</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -1810,11 +1875,19 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
